--- a/docs/01_画面仕様.xlsx
+++ b/docs/01_画面仕様.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1EDDD-45EA-4BBB-B76B-1A5A88813BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ACDD33-0396-4137-B5A5-F90DD8FC0F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="5265" yWindow="0" windowWidth="23625" windowHeight="15585" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="部品" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$K$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="140">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -820,12 +820,54 @@
     <t>1</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>role=一般</t>
+    <rPh sb="5" eb="7">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>role=管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤怠承認</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,6 +975,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1435,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,27 +1807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1793,12 +1822,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1843,6 +1896,126 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2068,13 +2241,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>195263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2132,13 +2305,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2214,13 +2387,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2296,13 +2469,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2378,13 +2551,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>195263</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2444,13 +2617,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2526,13 +2699,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2594,13 +2767,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2676,13 +2849,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2744,13 +2917,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2810,13 +2983,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2892,13 +3065,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2960,13 +3133,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3042,13 +3215,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3124,13 +3297,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3206,13 +3379,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3265,13 +3438,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3328,13 +3501,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3410,13 +3583,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3476,13 +3649,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21603,21 +21776,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:H36" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A2:H36" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="#" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:K36" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:K36" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="#" dataDxfId="17">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{2B2D10AB-3258-4A14-8A79-8FC53048B627}" name="管理サイト_x000a_提供" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="6">
-      <calculatedColumnFormula>$D$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{2B2D10AB-3258-4A14-8A79-8FC53048B627}" name="管理サイト_x000a_提供" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{8217BE6A-013E-4ABE-A769-8CC57D70FE22}" name="一般" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{7AC2F4C4-9AC8-4359-8C85-DC33F1B092EF}" name="勤怠承認" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E3CEADA8-2825-49C1-A54C-DE567A386577}" name="管理" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="13">
+      <calculatedColumnFormula>$G$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B4E4CA48-4926-4106-8863-A09A4C260153}" name="TemplateView" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{B4E4CA48-4926-4106-8863-A09A4C260153}" name="TemplateView" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21923,12 +22099,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:BG26"/>
+  <dimension ref="A1:BG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="AE35" sqref="AE35"/>
+      <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -21936,20 +22112,30 @@
     <col min="1" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,99)</f>
         <v>遷移図</v>
       </c>
     </row>
-    <row r="24" spans="59:59" x14ac:dyDescent="0.4">
-      <c r="BG24" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="59:59" x14ac:dyDescent="0.4">
+      <c r="BG25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="59:59" x14ac:dyDescent="0.4">
-      <c r="BG26" s="1" t="s">
+    <row r="27" spans="59:59" x14ac:dyDescent="0.4">
+      <c r="BG27" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C36" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -22147,41 +22333,44 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="6" width="10.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="79" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -22191,23 +22380,32 @@
       <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <f>ROW()-2</f>
         <v>1</v>
@@ -22218,20 +22416,29 @@
       <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H3" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/admin/login</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
         <v>2</v>
@@ -22242,22 +22449,31 @@
       <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H4" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/login</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -22268,22 +22484,31 @@
       <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H5" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22294,20 +22519,29 @@
       <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H6" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/user/list</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -22318,22 +22552,31 @@
       <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H7" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/user/create</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22344,22 +22587,31 @@
       <c r="C8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H8" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/user/edit</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22370,20 +22622,29 @@
       <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H9" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/user/delete</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -22394,18 +22655,23 @@
       <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H10" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/cp/list</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22416,18 +22682,23 @@
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H11" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/cp/create</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -22438,18 +22709,23 @@
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H12" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/cp/edit</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -22460,18 +22736,23 @@
       <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H13" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/cp/delete</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -22482,18 +22763,23 @@
       <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H14" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/dv/list</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -22504,18 +22790,23 @@
       <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H15" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/dv/create</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -22526,18 +22817,23 @@
       <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H16" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/dv/edit</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -22548,18 +22844,23 @@
       <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H17" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/dv/delete</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -22570,18 +22871,23 @@
       <c r="C18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H18" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/ot/list</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -22592,18 +22898,23 @@
       <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H19" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/ot/create</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -22614,18 +22925,23 @@
       <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H20" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/ot/edit</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -22636,18 +22952,23 @@
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="15" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H21" s="15" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/ot/delete</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <f t="shared" ref="A22:A33" si="1">ROW()-2</f>
         <v>20</v>
@@ -22658,22 +22979,27 @@
       <c r="C22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H22" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/dailywork/create</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -22684,22 +23010,27 @@
       <c r="C23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="H23" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085/kintai/dailywork/ref</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -22708,16 +23039,19 @@
       <c r="C24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="11"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -22726,16 +23060,19 @@
       <c r="C25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="11"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -22744,16 +23081,19 @@
       <c r="C26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" s="11"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -22762,16 +23102,19 @@
       <c r="C27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="11"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -22780,16 +23123,19 @@
       <c r="C28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="11"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -22798,16 +23144,19 @@
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="11"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -22816,16 +23165,19 @@
       <c r="C30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="11">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -22834,16 +23186,19 @@
       <c r="C31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -22852,16 +23207,19 @@
       <c r="C32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -22870,16 +23228,19 @@
       <c r="C33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -22888,16 +23249,19 @@
       <c r="C34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" s="11"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -22906,16 +23270,19 @@
       <c r="C35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -22924,224 +23291,304 @@
       <c r="C36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10" t="str">
-        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10" t="str">
+        <f>$G$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8085</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="11"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"◯"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"◯"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:E21 C9">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"◯"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:F4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"◯"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:F5">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
+  <conditionalFormatting sqref="F6:F23">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C21">
+  <conditionalFormatting sqref="D8:E8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{AA3746E6-C604-4BB2-B39F-85765C5115A1}"/>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{AA3746E6-C604-4BB2-B39F-85765C5115A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -29458,8 +29905,8 @@
   </sheetPr>
   <dimension ref="A1:AY173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ15" sqref="BJ15"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BS16" sqref="BS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -33314,18 +33761,18 @@
       <c r="AT129" s="74"/>
     </row>
     <row r="130" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G130" s="107"/>
-      <c r="H130" s="108"/>
-      <c r="I130" s="109"/>
-      <c r="J130" s="107">
+      <c r="G130" s="112"/>
+      <c r="H130" s="113"/>
+      <c r="I130" s="114"/>
+      <c r="J130" s="112">
         <v>1</v>
       </c>
-      <c r="K130" s="108"/>
-      <c r="L130" s="109"/>
-      <c r="M130" s="112" t="s">
+      <c r="K130" s="113"/>
+      <c r="L130" s="114"/>
+      <c r="M130" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N130" s="113"/>
+      <c r="N130" s="116"/>
       <c r="O130" s="53"/>
       <c r="P130" s="54"/>
       <c r="Q130" s="56"/>
@@ -33343,40 +33790,40 @@
       <c r="AA130" s="55"/>
       <c r="AB130" s="55"/>
       <c r="AC130" s="55"/>
-      <c r="AD130" s="114"/>
+      <c r="AD130" s="107"/>
       <c r="AE130" s="55"/>
       <c r="AF130" s="56"/>
-      <c r="AG130" s="107"/>
-      <c r="AH130" s="108"/>
-      <c r="AI130" s="109"/>
+      <c r="AG130" s="112"/>
+      <c r="AH130" s="113"/>
+      <c r="AI130" s="114"/>
       <c r="AJ130" s="63"/>
       <c r="AK130" s="64"/>
       <c r="AL130" s="65"/>
       <c r="AM130" s="63"/>
       <c r="AN130" s="64"/>
       <c r="AO130" s="64"/>
-      <c r="AP130" s="115" t="s">
+      <c r="AP130" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ130" s="116"/>
-      <c r="AR130" s="116"/>
-      <c r="AS130" s="117"/>
-      <c r="AT130" s="118"/>
+      <c r="AQ130" s="109"/>
+      <c r="AR130" s="109"/>
+      <c r="AS130" s="110"/>
+      <c r="AT130" s="111"/>
     </row>
     <row r="131" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G131" s="107"/>
-      <c r="H131" s="108"/>
-      <c r="I131" s="109"/>
-      <c r="J131" s="107">
+      <c r="G131" s="112"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="114"/>
+      <c r="J131" s="112">
         <f>J130+1</f>
         <v>2</v>
       </c>
-      <c r="K131" s="108"/>
-      <c r="L131" s="109"/>
-      <c r="M131" s="107" t="s">
+      <c r="K131" s="113"/>
+      <c r="L131" s="114"/>
+      <c r="M131" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="N131" s="109"/>
+      <c r="N131" s="114"/>
       <c r="O131" s="53"/>
       <c r="P131" s="54"/>
       <c r="Q131" s="56"/>
@@ -33398,40 +33845,40 @@
       <c r="AA131" s="55"/>
       <c r="AB131" s="55"/>
       <c r="AC131" s="55"/>
-      <c r="AD131" s="114"/>
+      <c r="AD131" s="107"/>
       <c r="AE131" s="55"/>
       <c r="AF131" s="56"/>
-      <c r="AG131" s="107"/>
-      <c r="AH131" s="108"/>
-      <c r="AI131" s="109"/>
+      <c r="AG131" s="112"/>
+      <c r="AH131" s="113"/>
+      <c r="AI131" s="114"/>
       <c r="AJ131" s="63"/>
       <c r="AK131" s="64"/>
       <c r="AL131" s="65"/>
       <c r="AM131" s="63"/>
       <c r="AN131" s="64"/>
       <c r="AO131" s="65"/>
-      <c r="AP131" s="115" t="s">
+      <c r="AP131" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ131" s="116"/>
-      <c r="AR131" s="116"/>
-      <c r="AS131" s="117"/>
-      <c r="AT131" s="118"/>
+      <c r="AQ131" s="109"/>
+      <c r="AR131" s="109"/>
+      <c r="AS131" s="110"/>
+      <c r="AT131" s="111"/>
     </row>
     <row r="132" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G132" s="107"/>
-      <c r="H132" s="108"/>
-      <c r="I132" s="109"/>
-      <c r="J132" s="107">
+      <c r="G132" s="112"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="114"/>
+      <c r="J132" s="112">
         <f>J131+1</f>
         <v>3</v>
       </c>
-      <c r="K132" s="108"/>
-      <c r="L132" s="109"/>
-      <c r="M132" s="107" t="s">
+      <c r="K132" s="113"/>
+      <c r="L132" s="114"/>
+      <c r="M132" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="N132" s="109"/>
+      <c r="N132" s="114"/>
       <c r="O132" s="59"/>
       <c r="P132" s="60"/>
       <c r="Q132" s="61"/>
@@ -33453,12 +33900,12 @@
       <c r="AA132" s="55"/>
       <c r="AB132" s="55"/>
       <c r="AC132" s="55"/>
-      <c r="AD132" s="114"/>
+      <c r="AD132" s="107"/>
       <c r="AE132" s="55"/>
       <c r="AF132" s="56"/>
-      <c r="AG132" s="107"/>
-      <c r="AH132" s="108"/>
-      <c r="AI132" s="109"/>
+      <c r="AG132" s="112"/>
+      <c r="AH132" s="113"/>
+      <c r="AI132" s="114"/>
       <c r="AJ132" s="63" t="s">
         <v>132</v>
       </c>
@@ -33472,25 +33919,25 @@
       <c r="AP132" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="AQ132" s="116"/>
-      <c r="AR132" s="116"/>
-      <c r="AS132" s="117"/>
-      <c r="AT132" s="118"/>
+      <c r="AQ132" s="109"/>
+      <c r="AR132" s="109"/>
+      <c r="AS132" s="110"/>
+      <c r="AT132" s="111"/>
     </row>
     <row r="133" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G133" s="107"/>
-      <c r="H133" s="108"/>
-      <c r="I133" s="109"/>
-      <c r="J133" s="107">
+      <c r="G133" s="112"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="114"/>
+      <c r="J133" s="112">
         <f t="shared" ref="J133:J137" si="0">J132+1</f>
         <v>4</v>
       </c>
-      <c r="K133" s="108"/>
-      <c r="L133" s="109"/>
-      <c r="M133" s="107" t="s">
+      <c r="K133" s="113"/>
+      <c r="L133" s="114"/>
+      <c r="M133" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="N133" s="109"/>
+      <c r="N133" s="114"/>
       <c r="O133" s="63">
         <v>9</v>
       </c>
@@ -33525,9 +33972,9 @@
       </c>
       <c r="AE133" s="64"/>
       <c r="AF133" s="65"/>
-      <c r="AG133" s="107"/>
-      <c r="AH133" s="108"/>
-      <c r="AI133" s="109"/>
+      <c r="AG133" s="112"/>
+      <c r="AH133" s="113"/>
+      <c r="AI133" s="114"/>
       <c r="AJ133" s="63" t="s">
         <v>97</v>
       </c>
@@ -33538,28 +33985,28 @@
       </c>
       <c r="AN133" s="64"/>
       <c r="AO133" s="65"/>
-      <c r="AP133" s="115" t="s">
+      <c r="AP133" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ133" s="116"/>
-      <c r="AR133" s="116"/>
-      <c r="AS133" s="117"/>
-      <c r="AT133" s="118"/>
+      <c r="AQ133" s="109"/>
+      <c r="AR133" s="109"/>
+      <c r="AS133" s="110"/>
+      <c r="AT133" s="111"/>
     </row>
     <row r="134" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G134" s="107"/>
-      <c r="H134" s="108"/>
-      <c r="I134" s="109"/>
-      <c r="J134" s="107">
+      <c r="G134" s="112"/>
+      <c r="H134" s="113"/>
+      <c r="I134" s="114"/>
+      <c r="J134" s="112">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K134" s="108"/>
-      <c r="L134" s="109"/>
-      <c r="M134" s="107" t="s">
+      <c r="K134" s="113"/>
+      <c r="L134" s="114"/>
+      <c r="M134" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="N134" s="109"/>
+      <c r="N134" s="114"/>
       <c r="O134" s="63">
         <v>9</v>
       </c>
@@ -33594,9 +34041,9 @@
       </c>
       <c r="AE134" s="64"/>
       <c r="AF134" s="65"/>
-      <c r="AG134" s="107"/>
-      <c r="AH134" s="108"/>
-      <c r="AI134" s="109"/>
+      <c r="AG134" s="112"/>
+      <c r="AH134" s="113"/>
+      <c r="AI134" s="114"/>
       <c r="AJ134" s="63" t="s">
         <v>97</v>
       </c>
@@ -33607,28 +34054,28 @@
       </c>
       <c r="AN134" s="64"/>
       <c r="AO134" s="65"/>
-      <c r="AP134" s="115" t="s">
+      <c r="AP134" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ134" s="116"/>
-      <c r="AR134" s="116"/>
-      <c r="AS134" s="117"/>
-      <c r="AT134" s="118"/>
+      <c r="AQ134" s="109"/>
+      <c r="AR134" s="109"/>
+      <c r="AS134" s="110"/>
+      <c r="AT134" s="111"/>
     </row>
     <row r="135" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G135" s="107"/>
-      <c r="H135" s="108"/>
-      <c r="I135" s="109"/>
-      <c r="J135" s="107">
+      <c r="G135" s="112"/>
+      <c r="H135" s="113"/>
+      <c r="I135" s="114"/>
+      <c r="J135" s="112">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K135" s="108"/>
-      <c r="L135" s="109"/>
-      <c r="M135" s="107" t="s">
+      <c r="K135" s="113"/>
+      <c r="L135" s="114"/>
+      <c r="M135" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="N135" s="109"/>
+      <c r="N135" s="114"/>
       <c r="O135" s="63">
         <v>9</v>
       </c>
@@ -33663,9 +34110,9 @@
       </c>
       <c r="AE135" s="64"/>
       <c r="AF135" s="65"/>
-      <c r="AG135" s="107"/>
-      <c r="AH135" s="108"/>
-      <c r="AI135" s="109"/>
+      <c r="AG135" s="112"/>
+      <c r="AH135" s="113"/>
+      <c r="AI135" s="114"/>
       <c r="AJ135" s="63" t="s">
         <v>100</v>
       </c>
@@ -33676,28 +34123,28 @@
       </c>
       <c r="AN135" s="64"/>
       <c r="AO135" s="65"/>
-      <c r="AP135" s="115" t="s">
+      <c r="AP135" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ135" s="116"/>
-      <c r="AR135" s="116"/>
-      <c r="AS135" s="117"/>
-      <c r="AT135" s="118"/>
+      <c r="AQ135" s="109"/>
+      <c r="AR135" s="109"/>
+      <c r="AS135" s="110"/>
+      <c r="AT135" s="111"/>
     </row>
     <row r="136" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G136" s="107"/>
-      <c r="H136" s="108"/>
-      <c r="I136" s="109"/>
-      <c r="J136" s="107">
+      <c r="G136" s="112"/>
+      <c r="H136" s="113"/>
+      <c r="I136" s="114"/>
+      <c r="J136" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K136" s="108"/>
-      <c r="L136" s="109"/>
-      <c r="M136" s="110" t="s">
+      <c r="K136" s="113"/>
+      <c r="L136" s="114"/>
+      <c r="M136" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="N136" s="111"/>
+      <c r="N136" s="118"/>
       <c r="O136" s="53"/>
       <c r="P136" s="54"/>
       <c r="Q136" s="56"/>
@@ -33715,40 +34162,40 @@
       <c r="AA136" s="55"/>
       <c r="AB136" s="55"/>
       <c r="AC136" s="55"/>
-      <c r="AD136" s="114"/>
+      <c r="AD136" s="107"/>
       <c r="AE136" s="55"/>
       <c r="AF136" s="56"/>
-      <c r="AG136" s="107"/>
-      <c r="AH136" s="108"/>
-      <c r="AI136" s="109"/>
+      <c r="AG136" s="112"/>
+      <c r="AH136" s="113"/>
+      <c r="AI136" s="114"/>
       <c r="AJ136" s="63"/>
       <c r="AK136" s="64"/>
       <c r="AL136" s="65"/>
       <c r="AM136" s="63"/>
       <c r="AN136" s="64"/>
       <c r="AO136" s="65"/>
-      <c r="AP136" s="115" t="s">
+      <c r="AP136" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ136" s="116"/>
-      <c r="AR136" s="116"/>
-      <c r="AS136" s="117"/>
-      <c r="AT136" s="118"/>
+      <c r="AQ136" s="109"/>
+      <c r="AR136" s="109"/>
+      <c r="AS136" s="110"/>
+      <c r="AT136" s="111"/>
     </row>
     <row r="137" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G137" s="107"/>
-      <c r="H137" s="108"/>
-      <c r="I137" s="109"/>
-      <c r="J137" s="107">
+      <c r="G137" s="112"/>
+      <c r="H137" s="113"/>
+      <c r="I137" s="114"/>
+      <c r="J137" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K137" s="108"/>
-      <c r="L137" s="109"/>
-      <c r="M137" s="112" t="s">
+      <c r="K137" s="113"/>
+      <c r="L137" s="114"/>
+      <c r="M137" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N137" s="113"/>
+      <c r="N137" s="116"/>
       <c r="O137" s="53"/>
       <c r="P137" s="54"/>
       <c r="Q137" s="56"/>
@@ -33766,40 +34213,40 @@
       <c r="AA137" s="55"/>
       <c r="AB137" s="55"/>
       <c r="AC137" s="55"/>
-      <c r="AD137" s="114"/>
+      <c r="AD137" s="107"/>
       <c r="AE137" s="55"/>
       <c r="AF137" s="56"/>
-      <c r="AG137" s="107"/>
-      <c r="AH137" s="108"/>
-      <c r="AI137" s="109"/>
+      <c r="AG137" s="112"/>
+      <c r="AH137" s="113"/>
+      <c r="AI137" s="114"/>
       <c r="AJ137" s="63"/>
       <c r="AK137" s="64"/>
       <c r="AL137" s="65"/>
       <c r="AM137" s="63"/>
       <c r="AN137" s="64"/>
       <c r="AO137" s="65"/>
-      <c r="AP137" s="115" t="s">
+      <c r="AP137" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ137" s="116"/>
-      <c r="AR137" s="116"/>
-      <c r="AS137" s="117"/>
-      <c r="AT137" s="118"/>
+      <c r="AQ137" s="109"/>
+      <c r="AR137" s="109"/>
+      <c r="AS137" s="110"/>
+      <c r="AT137" s="111"/>
     </row>
     <row r="138" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G138" s="107"/>
-      <c r="H138" s="108"/>
-      <c r="I138" s="109"/>
-      <c r="J138" s="107">
+      <c r="G138" s="112"/>
+      <c r="H138" s="113"/>
+      <c r="I138" s="114"/>
+      <c r="J138" s="112">
         <f t="shared" ref="J138:J151" si="1">J137+1</f>
         <v>9</v>
       </c>
-      <c r="K138" s="108"/>
-      <c r="L138" s="109"/>
-      <c r="M138" s="112" t="s">
+      <c r="K138" s="113"/>
+      <c r="L138" s="114"/>
+      <c r="M138" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="N138" s="113"/>
+      <c r="N138" s="116"/>
       <c r="O138" s="53"/>
       <c r="P138" s="54"/>
       <c r="Q138" s="56"/>
@@ -33817,40 +34264,40 @@
       <c r="AA138" s="55"/>
       <c r="AB138" s="55"/>
       <c r="AC138" s="55"/>
-      <c r="AD138" s="114"/>
+      <c r="AD138" s="107"/>
       <c r="AE138" s="55"/>
       <c r="AF138" s="56"/>
-      <c r="AG138" s="107"/>
-      <c r="AH138" s="108"/>
-      <c r="AI138" s="109"/>
+      <c r="AG138" s="112"/>
+      <c r="AH138" s="113"/>
+      <c r="AI138" s="114"/>
       <c r="AJ138" s="63"/>
       <c r="AK138" s="64"/>
       <c r="AL138" s="65"/>
       <c r="AM138" s="63"/>
       <c r="AN138" s="64"/>
       <c r="AO138" s="65"/>
-      <c r="AP138" s="115" t="s">
+      <c r="AP138" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ138" s="116"/>
-      <c r="AR138" s="116"/>
-      <c r="AS138" s="117"/>
-      <c r="AT138" s="118"/>
+      <c r="AQ138" s="109"/>
+      <c r="AR138" s="109"/>
+      <c r="AS138" s="110"/>
+      <c r="AT138" s="111"/>
     </row>
     <row r="139" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G139" s="107"/>
-      <c r="H139" s="108"/>
-      <c r="I139" s="109"/>
-      <c r="J139" s="107">
+      <c r="G139" s="112"/>
+      <c r="H139" s="113"/>
+      <c r="I139" s="114"/>
+      <c r="J139" s="112">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K139" s="108"/>
-      <c r="L139" s="109"/>
-      <c r="M139" s="107" t="s">
+      <c r="K139" s="113"/>
+      <c r="L139" s="114"/>
+      <c r="M139" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="N139" s="109"/>
+      <c r="N139" s="114"/>
       <c r="O139" s="63">
         <v>9</v>
       </c>
@@ -33885,9 +34332,9 @@
       </c>
       <c r="AE139" s="64"/>
       <c r="AF139" s="65"/>
-      <c r="AG139" s="107"/>
-      <c r="AH139" s="108"/>
-      <c r="AI139" s="109"/>
+      <c r="AG139" s="112"/>
+      <c r="AH139" s="113"/>
+      <c r="AI139" s="114"/>
       <c r="AJ139" s="63" t="s">
         <v>102</v>
       </c>
@@ -33898,28 +34345,28 @@
       </c>
       <c r="AN139" s="64"/>
       <c r="AO139" s="65"/>
-      <c r="AP139" s="115" t="s">
+      <c r="AP139" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ139" s="116"/>
-      <c r="AR139" s="116"/>
-      <c r="AS139" s="117"/>
-      <c r="AT139" s="118"/>
+      <c r="AQ139" s="109"/>
+      <c r="AR139" s="109"/>
+      <c r="AS139" s="110"/>
+      <c r="AT139" s="111"/>
     </row>
     <row r="140" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G140" s="107"/>
-      <c r="H140" s="108"/>
-      <c r="I140" s="109"/>
-      <c r="J140" s="107">
+      <c r="G140" s="112"/>
+      <c r="H140" s="113"/>
+      <c r="I140" s="114"/>
+      <c r="J140" s="112">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K140" s="108"/>
-      <c r="L140" s="109"/>
-      <c r="M140" s="107" t="s">
+      <c r="K140" s="113"/>
+      <c r="L140" s="114"/>
+      <c r="M140" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="N140" s="109"/>
+      <c r="N140" s="114"/>
       <c r="O140" s="63">
         <v>9</v>
       </c>
@@ -33954,9 +34401,9 @@
       </c>
       <c r="AE140" s="64"/>
       <c r="AF140" s="65"/>
-      <c r="AG140" s="107"/>
-      <c r="AH140" s="108"/>
-      <c r="AI140" s="109"/>
+      <c r="AG140" s="112"/>
+      <c r="AH140" s="113"/>
+      <c r="AI140" s="114"/>
       <c r="AJ140" s="63" t="s">
         <v>99</v>
       </c>
@@ -33967,28 +34414,28 @@
       </c>
       <c r="AN140" s="64"/>
       <c r="AO140" s="65"/>
-      <c r="AP140" s="115" t="s">
+      <c r="AP140" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ140" s="116"/>
-      <c r="AR140" s="116"/>
-      <c r="AS140" s="117"/>
-      <c r="AT140" s="118"/>
+      <c r="AQ140" s="109"/>
+      <c r="AR140" s="109"/>
+      <c r="AS140" s="110"/>
+      <c r="AT140" s="111"/>
     </row>
     <row r="141" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G141" s="107"/>
-      <c r="H141" s="108"/>
-      <c r="I141" s="109"/>
-      <c r="J141" s="107">
+      <c r="G141" s="112"/>
+      <c r="H141" s="113"/>
+      <c r="I141" s="114"/>
+      <c r="J141" s="112">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K141" s="108"/>
-      <c r="L141" s="109"/>
-      <c r="M141" s="107" t="s">
+      <c r="K141" s="113"/>
+      <c r="L141" s="114"/>
+      <c r="M141" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="N141" s="109"/>
+      <c r="N141" s="114"/>
       <c r="O141" s="63">
         <v>9</v>
       </c>
@@ -34023,9 +34470,9 @@
       </c>
       <c r="AE141" s="64"/>
       <c r="AF141" s="65"/>
-      <c r="AG141" s="107"/>
-      <c r="AH141" s="108"/>
-      <c r="AI141" s="109"/>
+      <c r="AG141" s="112"/>
+      <c r="AH141" s="113"/>
+      <c r="AI141" s="114"/>
       <c r="AJ141" s="63" t="s">
         <v>99</v>
       </c>
@@ -34036,28 +34483,28 @@
       </c>
       <c r="AN141" s="64"/>
       <c r="AO141" s="65"/>
-      <c r="AP141" s="115" t="s">
+      <c r="AP141" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ141" s="116"/>
-      <c r="AR141" s="116"/>
-      <c r="AS141" s="117"/>
-      <c r="AT141" s="118"/>
+      <c r="AQ141" s="109"/>
+      <c r="AR141" s="109"/>
+      <c r="AS141" s="110"/>
+      <c r="AT141" s="111"/>
     </row>
     <row r="142" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G142" s="107"/>
-      <c r="H142" s="108"/>
-      <c r="I142" s="109"/>
-      <c r="J142" s="107">
+      <c r="G142" s="112"/>
+      <c r="H142" s="113"/>
+      <c r="I142" s="114"/>
+      <c r="J142" s="112">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K142" s="108"/>
-      <c r="L142" s="109"/>
-      <c r="M142" s="107" t="s">
+      <c r="K142" s="113"/>
+      <c r="L142" s="114"/>
+      <c r="M142" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="N142" s="109"/>
+      <c r="N142" s="114"/>
       <c r="O142" s="63">
         <v>9</v>
       </c>
@@ -34092,9 +34539,9 @@
       </c>
       <c r="AE142" s="64"/>
       <c r="AF142" s="65"/>
-      <c r="AG142" s="107"/>
-      <c r="AH142" s="108"/>
-      <c r="AI142" s="109"/>
+      <c r="AG142" s="112"/>
+      <c r="AH142" s="113"/>
+      <c r="AI142" s="114"/>
       <c r="AJ142" s="63" t="s">
         <v>99</v>
       </c>
@@ -34105,28 +34552,28 @@
       </c>
       <c r="AN142" s="64"/>
       <c r="AO142" s="65"/>
-      <c r="AP142" s="115" t="s">
+      <c r="AP142" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ142" s="116"/>
-      <c r="AR142" s="116"/>
-      <c r="AS142" s="117"/>
-      <c r="AT142" s="118"/>
+      <c r="AQ142" s="109"/>
+      <c r="AR142" s="109"/>
+      <c r="AS142" s="110"/>
+      <c r="AT142" s="111"/>
     </row>
     <row r="143" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G143" s="107"/>
-      <c r="H143" s="108"/>
-      <c r="I143" s="109"/>
-      <c r="J143" s="107">
+      <c r="G143" s="112"/>
+      <c r="H143" s="113"/>
+      <c r="I143" s="114"/>
+      <c r="J143" s="112">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K143" s="108"/>
-      <c r="L143" s="109"/>
-      <c r="M143" s="110" t="s">
+      <c r="K143" s="113"/>
+      <c r="L143" s="114"/>
+      <c r="M143" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="N143" s="111"/>
+      <c r="N143" s="118"/>
       <c r="O143" s="53"/>
       <c r="P143" s="54"/>
       <c r="Q143" s="56"/>
@@ -34144,40 +34591,40 @@
       <c r="AA143" s="55"/>
       <c r="AB143" s="55"/>
       <c r="AC143" s="55"/>
-      <c r="AD143" s="114"/>
+      <c r="AD143" s="107"/>
       <c r="AE143" s="55"/>
       <c r="AF143" s="56"/>
-      <c r="AG143" s="107"/>
-      <c r="AH143" s="108"/>
-      <c r="AI143" s="109"/>
+      <c r="AG143" s="112"/>
+      <c r="AH143" s="113"/>
+      <c r="AI143" s="114"/>
       <c r="AJ143" s="63"/>
       <c r="AK143" s="64"/>
       <c r="AL143" s="65"/>
       <c r="AM143" s="63"/>
       <c r="AN143" s="64"/>
       <c r="AO143" s="65"/>
-      <c r="AP143" s="115" t="s">
+      <c r="AP143" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ143" s="116"/>
-      <c r="AR143" s="116"/>
-      <c r="AS143" s="117"/>
-      <c r="AT143" s="118"/>
+      <c r="AQ143" s="109"/>
+      <c r="AR143" s="109"/>
+      <c r="AS143" s="110"/>
+      <c r="AT143" s="111"/>
     </row>
     <row r="144" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G144" s="107"/>
-      <c r="H144" s="108"/>
-      <c r="I144" s="109"/>
-      <c r="J144" s="107">
+      <c r="G144" s="112"/>
+      <c r="H144" s="113"/>
+      <c r="I144" s="114"/>
+      <c r="J144" s="112">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K144" s="108"/>
-      <c r="L144" s="109"/>
-      <c r="M144" s="112" t="s">
+      <c r="K144" s="113"/>
+      <c r="L144" s="114"/>
+      <c r="M144" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N144" s="113"/>
+      <c r="N144" s="116"/>
       <c r="O144" s="53"/>
       <c r="P144" s="54"/>
       <c r="Q144" s="56"/>
@@ -34195,40 +34642,40 @@
       <c r="AA144" s="55"/>
       <c r="AB144" s="55"/>
       <c r="AC144" s="55"/>
-      <c r="AD144" s="114"/>
+      <c r="AD144" s="107"/>
       <c r="AE144" s="55"/>
       <c r="AF144" s="56"/>
-      <c r="AG144" s="107"/>
-      <c r="AH144" s="108"/>
-      <c r="AI144" s="109"/>
+      <c r="AG144" s="112"/>
+      <c r="AH144" s="113"/>
+      <c r="AI144" s="114"/>
       <c r="AJ144" s="63"/>
       <c r="AK144" s="64"/>
       <c r="AL144" s="65"/>
       <c r="AM144" s="63"/>
       <c r="AN144" s="64"/>
       <c r="AO144" s="65"/>
-      <c r="AP144" s="115" t="s">
+      <c r="AP144" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ144" s="116"/>
-      <c r="AR144" s="116"/>
-      <c r="AS144" s="117"/>
-      <c r="AT144" s="118"/>
+      <c r="AQ144" s="109"/>
+      <c r="AR144" s="109"/>
+      <c r="AS144" s="110"/>
+      <c r="AT144" s="111"/>
     </row>
     <row r="145" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G145" s="107"/>
-      <c r="H145" s="108"/>
-      <c r="I145" s="109"/>
-      <c r="J145" s="107">
+      <c r="G145" s="112"/>
+      <c r="H145" s="113"/>
+      <c r="I145" s="114"/>
+      <c r="J145" s="112">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K145" s="108"/>
-      <c r="L145" s="109"/>
-      <c r="M145" s="107" t="s">
+      <c r="K145" s="113"/>
+      <c r="L145" s="114"/>
+      <c r="M145" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="N145" s="109"/>
+      <c r="N145" s="114"/>
       <c r="O145" s="63">
         <v>9</v>
       </c>
@@ -34263,9 +34710,9 @@
       </c>
       <c r="AE145" s="64"/>
       <c r="AF145" s="65"/>
-      <c r="AG145" s="107"/>
-      <c r="AH145" s="108"/>
-      <c r="AI145" s="109"/>
+      <c r="AG145" s="112"/>
+      <c r="AH145" s="113"/>
+      <c r="AI145" s="114"/>
       <c r="AJ145" s="63" t="s">
         <v>99</v>
       </c>
@@ -34276,28 +34723,28 @@
       </c>
       <c r="AN145" s="64"/>
       <c r="AO145" s="65"/>
-      <c r="AP145" s="115" t="s">
+      <c r="AP145" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ145" s="116"/>
-      <c r="AR145" s="116"/>
-      <c r="AS145" s="117"/>
-      <c r="AT145" s="118"/>
+      <c r="AQ145" s="109"/>
+      <c r="AR145" s="109"/>
+      <c r="AS145" s="110"/>
+      <c r="AT145" s="111"/>
     </row>
     <row r="146" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G146" s="107"/>
-      <c r="H146" s="108"/>
-      <c r="I146" s="109"/>
-      <c r="J146" s="107">
+      <c r="G146" s="112"/>
+      <c r="H146" s="113"/>
+      <c r="I146" s="114"/>
+      <c r="J146" s="112">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K146" s="108"/>
-      <c r="L146" s="109"/>
-      <c r="M146" s="107" t="s">
+      <c r="K146" s="113"/>
+      <c r="L146" s="114"/>
+      <c r="M146" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="N146" s="109"/>
+      <c r="N146" s="114"/>
       <c r="O146" s="63">
         <v>9</v>
       </c>
@@ -34332,9 +34779,9 @@
       </c>
       <c r="AE146" s="64"/>
       <c r="AF146" s="65"/>
-      <c r="AG146" s="107"/>
-      <c r="AH146" s="108"/>
-      <c r="AI146" s="109"/>
+      <c r="AG146" s="112"/>
+      <c r="AH146" s="113"/>
+      <c r="AI146" s="114"/>
       <c r="AJ146" s="63" t="s">
         <v>99</v>
       </c>
@@ -34345,28 +34792,28 @@
       </c>
       <c r="AN146" s="64"/>
       <c r="AO146" s="65"/>
-      <c r="AP146" s="115" t="s">
+      <c r="AP146" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ146" s="116"/>
-      <c r="AR146" s="116"/>
-      <c r="AS146" s="117"/>
-      <c r="AT146" s="118"/>
+      <c r="AQ146" s="109"/>
+      <c r="AR146" s="109"/>
+      <c r="AS146" s="110"/>
+      <c r="AT146" s="111"/>
     </row>
     <row r="147" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G147" s="107"/>
-      <c r="H147" s="108"/>
-      <c r="I147" s="109"/>
-      <c r="J147" s="107">
+      <c r="G147" s="112"/>
+      <c r="H147" s="113"/>
+      <c r="I147" s="114"/>
+      <c r="J147" s="112">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K147" s="108"/>
-      <c r="L147" s="109"/>
-      <c r="M147" s="107" t="s">
+      <c r="K147" s="113"/>
+      <c r="L147" s="114"/>
+      <c r="M147" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="N147" s="109"/>
+      <c r="N147" s="114"/>
       <c r="O147" s="63">
         <v>9</v>
       </c>
@@ -34401,9 +34848,9 @@
       </c>
       <c r="AE147" s="64"/>
       <c r="AF147" s="65"/>
-      <c r="AG147" s="107"/>
-      <c r="AH147" s="108"/>
-      <c r="AI147" s="109"/>
+      <c r="AG147" s="112"/>
+      <c r="AH147" s="113"/>
+      <c r="AI147" s="114"/>
       <c r="AJ147" s="63" t="s">
         <v>99</v>
       </c>
@@ -34414,28 +34861,28 @@
       </c>
       <c r="AN147" s="64"/>
       <c r="AO147" s="65"/>
-      <c r="AP147" s="115" t="s">
+      <c r="AP147" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ147" s="116"/>
-      <c r="AR147" s="116"/>
-      <c r="AS147" s="117"/>
-      <c r="AT147" s="118"/>
+      <c r="AQ147" s="109"/>
+      <c r="AR147" s="109"/>
+      <c r="AS147" s="110"/>
+      <c r="AT147" s="111"/>
     </row>
     <row r="148" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G148" s="107"/>
-      <c r="H148" s="108"/>
-      <c r="I148" s="109"/>
-      <c r="J148" s="107">
+      <c r="G148" s="112"/>
+      <c r="H148" s="113"/>
+      <c r="I148" s="114"/>
+      <c r="J148" s="112">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K148" s="108"/>
-      <c r="L148" s="109"/>
-      <c r="M148" s="107" t="s">
+      <c r="K148" s="113"/>
+      <c r="L148" s="114"/>
+      <c r="M148" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="N148" s="109"/>
+      <c r="N148" s="114"/>
       <c r="O148" s="63">
         <v>9</v>
       </c>
@@ -34470,9 +34917,9 @@
       </c>
       <c r="AE148" s="64"/>
       <c r="AF148" s="65"/>
-      <c r="AG148" s="107"/>
-      <c r="AH148" s="108"/>
-      <c r="AI148" s="109"/>
+      <c r="AG148" s="112"/>
+      <c r="AH148" s="113"/>
+      <c r="AI148" s="114"/>
       <c r="AJ148" s="63" t="s">
         <v>99</v>
       </c>
@@ -34483,28 +34930,28 @@
       </c>
       <c r="AN148" s="64"/>
       <c r="AO148" s="65"/>
-      <c r="AP148" s="115" t="s">
+      <c r="AP148" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ148" s="116"/>
-      <c r="AR148" s="116"/>
-      <c r="AS148" s="117"/>
-      <c r="AT148" s="118"/>
+      <c r="AQ148" s="109"/>
+      <c r="AR148" s="109"/>
+      <c r="AS148" s="110"/>
+      <c r="AT148" s="111"/>
     </row>
     <row r="149" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G149" s="107"/>
-      <c r="H149" s="108"/>
-      <c r="I149" s="109"/>
-      <c r="J149" s="107">
+      <c r="G149" s="112"/>
+      <c r="H149" s="113"/>
+      <c r="I149" s="114"/>
+      <c r="J149" s="112">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K149" s="108"/>
-      <c r="L149" s="109"/>
-      <c r="M149" s="107" t="s">
+      <c r="K149" s="113"/>
+      <c r="L149" s="114"/>
+      <c r="M149" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="N149" s="109"/>
+      <c r="N149" s="114"/>
       <c r="O149" s="63">
         <v>9</v>
       </c>
@@ -34539,9 +34986,9 @@
       </c>
       <c r="AE149" s="64"/>
       <c r="AF149" s="65"/>
-      <c r="AG149" s="107"/>
-      <c r="AH149" s="108"/>
-      <c r="AI149" s="109"/>
+      <c r="AG149" s="112"/>
+      <c r="AH149" s="113"/>
+      <c r="AI149" s="114"/>
       <c r="AJ149" s="63" t="s">
         <v>99</v>
       </c>
@@ -34552,28 +34999,28 @@
       </c>
       <c r="AN149" s="64"/>
       <c r="AO149" s="65"/>
-      <c r="AP149" s="115" t="s">
+      <c r="AP149" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ149" s="116"/>
-      <c r="AR149" s="116"/>
-      <c r="AS149" s="117"/>
-      <c r="AT149" s="118"/>
+      <c r="AQ149" s="109"/>
+      <c r="AR149" s="109"/>
+      <c r="AS149" s="110"/>
+      <c r="AT149" s="111"/>
     </row>
     <row r="150" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G150" s="107"/>
-      <c r="H150" s="108"/>
-      <c r="I150" s="109"/>
-      <c r="J150" s="107">
+      <c r="G150" s="112"/>
+      <c r="H150" s="113"/>
+      <c r="I150" s="114"/>
+      <c r="J150" s="112">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K150" s="108"/>
-      <c r="L150" s="109"/>
-      <c r="M150" s="110" t="s">
+      <c r="K150" s="113"/>
+      <c r="L150" s="114"/>
+      <c r="M150" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="N150" s="111"/>
+      <c r="N150" s="118"/>
       <c r="O150" s="53"/>
       <c r="P150" s="54"/>
       <c r="Q150" s="56"/>
@@ -34591,40 +35038,40 @@
       <c r="AA150" s="55"/>
       <c r="AB150" s="55"/>
       <c r="AC150" s="55"/>
-      <c r="AD150" s="114"/>
+      <c r="AD150" s="107"/>
       <c r="AE150" s="55"/>
       <c r="AF150" s="56"/>
-      <c r="AG150" s="107"/>
-      <c r="AH150" s="108"/>
-      <c r="AI150" s="109"/>
+      <c r="AG150" s="112"/>
+      <c r="AH150" s="113"/>
+      <c r="AI150" s="114"/>
       <c r="AJ150" s="63"/>
       <c r="AK150" s="64"/>
       <c r="AL150" s="65"/>
       <c r="AM150" s="63"/>
       <c r="AN150" s="64"/>
       <c r="AO150" s="65"/>
-      <c r="AP150" s="115" t="s">
+      <c r="AP150" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ150" s="116"/>
-      <c r="AR150" s="116"/>
-      <c r="AS150" s="117"/>
-      <c r="AT150" s="118"/>
+      <c r="AQ150" s="109"/>
+      <c r="AR150" s="109"/>
+      <c r="AS150" s="110"/>
+      <c r="AT150" s="111"/>
     </row>
     <row r="151" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G151" s="107"/>
-      <c r="H151" s="108"/>
-      <c r="I151" s="109"/>
-      <c r="J151" s="107">
+      <c r="G151" s="112"/>
+      <c r="H151" s="113"/>
+      <c r="I151" s="114"/>
+      <c r="J151" s="112">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K151" s="108"/>
-      <c r="L151" s="109"/>
-      <c r="M151" s="112" t="s">
+      <c r="K151" s="113"/>
+      <c r="L151" s="114"/>
+      <c r="M151" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N151" s="113"/>
+      <c r="N151" s="116"/>
       <c r="O151" s="53"/>
       <c r="P151" s="54"/>
       <c r="Q151" s="56"/>
@@ -34642,40 +35089,40 @@
       <c r="AA151" s="55"/>
       <c r="AB151" s="55"/>
       <c r="AC151" s="55"/>
-      <c r="AD151" s="114"/>
+      <c r="AD151" s="107"/>
       <c r="AE151" s="55"/>
       <c r="AF151" s="56"/>
-      <c r="AG151" s="107"/>
-      <c r="AH151" s="108"/>
-      <c r="AI151" s="109"/>
+      <c r="AG151" s="112"/>
+      <c r="AH151" s="113"/>
+      <c r="AI151" s="114"/>
       <c r="AJ151" s="63"/>
       <c r="AK151" s="64"/>
       <c r="AL151" s="65"/>
       <c r="AM151" s="63"/>
       <c r="AN151" s="64"/>
       <c r="AO151" s="65"/>
-      <c r="AP151" s="115" t="s">
+      <c r="AP151" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ151" s="116"/>
-      <c r="AR151" s="116"/>
-      <c r="AS151" s="117"/>
-      <c r="AT151" s="118"/>
+      <c r="AQ151" s="109"/>
+      <c r="AR151" s="109"/>
+      <c r="AS151" s="110"/>
+      <c r="AT151" s="111"/>
     </row>
     <row r="152" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G152" s="107"/>
-      <c r="H152" s="108"/>
-      <c r="I152" s="109"/>
-      <c r="J152" s="107">
+      <c r="G152" s="112"/>
+      <c r="H152" s="113"/>
+      <c r="I152" s="114"/>
+      <c r="J152" s="112">
         <f t="shared" ref="J152:J160" si="2">J151+1</f>
         <v>23</v>
       </c>
-      <c r="K152" s="108"/>
-      <c r="L152" s="109"/>
-      <c r="M152" s="107" t="s">
+      <c r="K152" s="113"/>
+      <c r="L152" s="114"/>
+      <c r="M152" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="N152" s="109"/>
+      <c r="N152" s="114"/>
       <c r="O152" s="63">
         <v>9</v>
       </c>
@@ -34710,9 +35157,9 @@
       </c>
       <c r="AE152" s="64"/>
       <c r="AF152" s="65"/>
-      <c r="AG152" s="107"/>
-      <c r="AH152" s="108"/>
-      <c r="AI152" s="109"/>
+      <c r="AG152" s="112"/>
+      <c r="AH152" s="113"/>
+      <c r="AI152" s="114"/>
       <c r="AJ152" s="63" t="s">
         <v>99</v>
       </c>
@@ -34723,28 +35170,28 @@
       </c>
       <c r="AN152" s="64"/>
       <c r="AO152" s="65"/>
-      <c r="AP152" s="115" t="s">
+      <c r="AP152" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ152" s="116"/>
-      <c r="AR152" s="116"/>
-      <c r="AS152" s="117"/>
-      <c r="AT152" s="118"/>
+      <c r="AQ152" s="109"/>
+      <c r="AR152" s="109"/>
+      <c r="AS152" s="110"/>
+      <c r="AT152" s="111"/>
     </row>
     <row r="153" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G153" s="107"/>
-      <c r="H153" s="108"/>
-      <c r="I153" s="109"/>
-      <c r="J153" s="107">
+      <c r="G153" s="112"/>
+      <c r="H153" s="113"/>
+      <c r="I153" s="114"/>
+      <c r="J153" s="112">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K153" s="108"/>
-      <c r="L153" s="109"/>
-      <c r="M153" s="107" t="s">
+      <c r="K153" s="113"/>
+      <c r="L153" s="114"/>
+      <c r="M153" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="N153" s="109"/>
+      <c r="N153" s="114"/>
       <c r="O153" s="63">
         <v>9</v>
       </c>
@@ -34779,9 +35226,9 @@
       </c>
       <c r="AE153" s="64"/>
       <c r="AF153" s="65"/>
-      <c r="AG153" s="107"/>
-      <c r="AH153" s="108"/>
-      <c r="AI153" s="109"/>
+      <c r="AG153" s="112"/>
+      <c r="AH153" s="113"/>
+      <c r="AI153" s="114"/>
       <c r="AJ153" s="63" t="s">
         <v>99</v>
       </c>
@@ -34792,28 +35239,28 @@
       </c>
       <c r="AN153" s="64"/>
       <c r="AO153" s="65"/>
-      <c r="AP153" s="115" t="s">
+      <c r="AP153" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ153" s="116"/>
-      <c r="AR153" s="116"/>
-      <c r="AS153" s="117"/>
-      <c r="AT153" s="118"/>
+      <c r="AQ153" s="109"/>
+      <c r="AR153" s="109"/>
+      <c r="AS153" s="110"/>
+      <c r="AT153" s="111"/>
     </row>
     <row r="154" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G154" s="107"/>
-      <c r="H154" s="108"/>
-      <c r="I154" s="109"/>
-      <c r="J154" s="107">
+      <c r="G154" s="112"/>
+      <c r="H154" s="113"/>
+      <c r="I154" s="114"/>
+      <c r="J154" s="112">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K154" s="108"/>
-      <c r="L154" s="109"/>
-      <c r="M154" s="107" t="s">
+      <c r="K154" s="113"/>
+      <c r="L154" s="114"/>
+      <c r="M154" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="N154" s="109"/>
+      <c r="N154" s="114"/>
       <c r="O154" s="63">
         <v>9</v>
       </c>
@@ -34848,9 +35295,9 @@
       </c>
       <c r="AE154" s="64"/>
       <c r="AF154" s="65"/>
-      <c r="AG154" s="107"/>
-      <c r="AH154" s="108"/>
-      <c r="AI154" s="109"/>
+      <c r="AG154" s="112"/>
+      <c r="AH154" s="113"/>
+      <c r="AI154" s="114"/>
       <c r="AJ154" s="63" t="s">
         <v>99</v>
       </c>
@@ -34861,28 +35308,28 @@
       </c>
       <c r="AN154" s="64"/>
       <c r="AO154" s="65"/>
-      <c r="AP154" s="115" t="s">
+      <c r="AP154" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ154" s="116"/>
-      <c r="AR154" s="116"/>
-      <c r="AS154" s="117"/>
-      <c r="AT154" s="118"/>
+      <c r="AQ154" s="109"/>
+      <c r="AR154" s="109"/>
+      <c r="AS154" s="110"/>
+      <c r="AT154" s="111"/>
     </row>
     <row r="155" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G155" s="107"/>
-      <c r="H155" s="108"/>
-      <c r="I155" s="109"/>
-      <c r="J155" s="107">
+      <c r="G155" s="112"/>
+      <c r="H155" s="113"/>
+      <c r="I155" s="114"/>
+      <c r="J155" s="112">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K155" s="108"/>
-      <c r="L155" s="109"/>
-      <c r="M155" s="107" t="s">
+      <c r="K155" s="113"/>
+      <c r="L155" s="114"/>
+      <c r="M155" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="N155" s="109"/>
+      <c r="N155" s="114"/>
       <c r="O155" s="63">
         <v>9</v>
       </c>
@@ -34917,9 +35364,9 @@
       </c>
       <c r="AE155" s="64"/>
       <c r="AF155" s="65"/>
-      <c r="AG155" s="107"/>
-      <c r="AH155" s="108"/>
-      <c r="AI155" s="109"/>
+      <c r="AG155" s="112"/>
+      <c r="AH155" s="113"/>
+      <c r="AI155" s="114"/>
       <c r="AJ155" s="63" t="s">
         <v>99</v>
       </c>
@@ -34930,28 +35377,28 @@
       </c>
       <c r="AN155" s="64"/>
       <c r="AO155" s="65"/>
-      <c r="AP155" s="115" t="s">
+      <c r="AP155" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ155" s="116"/>
-      <c r="AR155" s="116"/>
-      <c r="AS155" s="117"/>
-      <c r="AT155" s="118"/>
+      <c r="AQ155" s="109"/>
+      <c r="AR155" s="109"/>
+      <c r="AS155" s="110"/>
+      <c r="AT155" s="111"/>
     </row>
     <row r="156" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G156" s="107"/>
-      <c r="H156" s="108"/>
-      <c r="I156" s="109"/>
-      <c r="J156" s="107">
+      <c r="G156" s="112"/>
+      <c r="H156" s="113"/>
+      <c r="I156" s="114"/>
+      <c r="J156" s="112">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K156" s="108"/>
-      <c r="L156" s="109"/>
-      <c r="M156" s="107" t="s">
+      <c r="K156" s="113"/>
+      <c r="L156" s="114"/>
+      <c r="M156" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="N156" s="109"/>
+      <c r="N156" s="114"/>
       <c r="O156" s="63">
         <v>9</v>
       </c>
@@ -34986,9 +35433,9 @@
       </c>
       <c r="AE156" s="64"/>
       <c r="AF156" s="65"/>
-      <c r="AG156" s="107"/>
-      <c r="AH156" s="108"/>
-      <c r="AI156" s="109"/>
+      <c r="AG156" s="112"/>
+      <c r="AH156" s="113"/>
+      <c r="AI156" s="114"/>
       <c r="AJ156" s="63" t="s">
         <v>99</v>
       </c>
@@ -34999,28 +35446,28 @@
       </c>
       <c r="AN156" s="64"/>
       <c r="AO156" s="65"/>
-      <c r="AP156" s="115" t="s">
+      <c r="AP156" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ156" s="116"/>
-      <c r="AR156" s="116"/>
-      <c r="AS156" s="117"/>
-      <c r="AT156" s="118"/>
+      <c r="AQ156" s="109"/>
+      <c r="AR156" s="109"/>
+      <c r="AS156" s="110"/>
+      <c r="AT156" s="111"/>
     </row>
     <row r="157" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G157" s="107"/>
-      <c r="H157" s="108"/>
-      <c r="I157" s="109"/>
-      <c r="J157" s="107">
+      <c r="G157" s="112"/>
+      <c r="H157" s="113"/>
+      <c r="I157" s="114"/>
+      <c r="J157" s="112">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K157" s="108"/>
-      <c r="L157" s="109"/>
-      <c r="M157" s="110" t="s">
+      <c r="K157" s="113"/>
+      <c r="L157" s="114"/>
+      <c r="M157" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="N157" s="111"/>
+      <c r="N157" s="118"/>
       <c r="O157" s="53"/>
       <c r="P157" s="54"/>
       <c r="Q157" s="56"/>
@@ -35038,40 +35485,40 @@
       <c r="AA157" s="55"/>
       <c r="AB157" s="55"/>
       <c r="AC157" s="55"/>
-      <c r="AD157" s="114"/>
+      <c r="AD157" s="107"/>
       <c r="AE157" s="55"/>
       <c r="AF157" s="56"/>
-      <c r="AG157" s="107"/>
-      <c r="AH157" s="108"/>
-      <c r="AI157" s="109"/>
+      <c r="AG157" s="112"/>
+      <c r="AH157" s="113"/>
+      <c r="AI157" s="114"/>
       <c r="AJ157" s="63"/>
       <c r="AK157" s="64"/>
       <c r="AL157" s="65"/>
       <c r="AM157" s="63"/>
       <c r="AN157" s="64"/>
       <c r="AO157" s="65"/>
-      <c r="AP157" s="115" t="s">
+      <c r="AP157" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ157" s="116"/>
-      <c r="AR157" s="116"/>
-      <c r="AS157" s="117"/>
-      <c r="AT157" s="118"/>
+      <c r="AQ157" s="109"/>
+      <c r="AR157" s="109"/>
+      <c r="AS157" s="110"/>
+      <c r="AT157" s="111"/>
     </row>
     <row r="158" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G158" s="107"/>
-      <c r="H158" s="108"/>
-      <c r="I158" s="109"/>
-      <c r="J158" s="107">
+      <c r="G158" s="112"/>
+      <c r="H158" s="113"/>
+      <c r="I158" s="114"/>
+      <c r="J158" s="112">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K158" s="108"/>
-      <c r="L158" s="109"/>
-      <c r="M158" s="112" t="s">
+      <c r="K158" s="113"/>
+      <c r="L158" s="114"/>
+      <c r="M158" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N158" s="113"/>
+      <c r="N158" s="116"/>
       <c r="O158" s="53"/>
       <c r="P158" s="54"/>
       <c r="Q158" s="56"/>
@@ -35089,40 +35536,40 @@
       <c r="AA158" s="55"/>
       <c r="AB158" s="55"/>
       <c r="AC158" s="55"/>
-      <c r="AD158" s="114"/>
+      <c r="AD158" s="107"/>
       <c r="AE158" s="55"/>
       <c r="AF158" s="56"/>
-      <c r="AG158" s="107"/>
-      <c r="AH158" s="108"/>
-      <c r="AI158" s="109"/>
+      <c r="AG158" s="112"/>
+      <c r="AH158" s="113"/>
+      <c r="AI158" s="114"/>
       <c r="AJ158" s="63"/>
       <c r="AK158" s="64"/>
       <c r="AL158" s="65"/>
       <c r="AM158" s="63"/>
       <c r="AN158" s="64"/>
       <c r="AO158" s="65"/>
-      <c r="AP158" s="115" t="s">
+      <c r="AP158" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ158" s="116"/>
-      <c r="AR158" s="116"/>
-      <c r="AS158" s="117"/>
-      <c r="AT158" s="118"/>
+      <c r="AQ158" s="109"/>
+      <c r="AR158" s="109"/>
+      <c r="AS158" s="110"/>
+      <c r="AT158" s="111"/>
     </row>
     <row r="159" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G159" s="107"/>
-      <c r="H159" s="108"/>
-      <c r="I159" s="109"/>
-      <c r="J159" s="107">
+      <c r="G159" s="112"/>
+      <c r="H159" s="113"/>
+      <c r="I159" s="114"/>
+      <c r="J159" s="112">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K159" s="108"/>
-      <c r="L159" s="109"/>
-      <c r="M159" s="107" t="s">
+      <c r="K159" s="113"/>
+      <c r="L159" s="114"/>
+      <c r="M159" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="N159" s="109"/>
+      <c r="N159" s="114"/>
       <c r="O159" s="63">
         <v>9</v>
       </c>
@@ -35157,9 +35604,9 @@
       </c>
       <c r="AE159" s="64"/>
       <c r="AF159" s="65"/>
-      <c r="AG159" s="107"/>
-      <c r="AH159" s="108"/>
-      <c r="AI159" s="109"/>
+      <c r="AG159" s="112"/>
+      <c r="AH159" s="113"/>
+      <c r="AI159" s="114"/>
       <c r="AJ159" s="63" t="s">
         <v>99</v>
       </c>
@@ -35170,28 +35617,28 @@
       </c>
       <c r="AN159" s="64"/>
       <c r="AO159" s="65"/>
-      <c r="AP159" s="115" t="s">
+      <c r="AP159" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ159" s="116"/>
-      <c r="AR159" s="116"/>
-      <c r="AS159" s="117"/>
-      <c r="AT159" s="118"/>
+      <c r="AQ159" s="109"/>
+      <c r="AR159" s="109"/>
+      <c r="AS159" s="110"/>
+      <c r="AT159" s="111"/>
     </row>
     <row r="160" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G160" s="107"/>
-      <c r="H160" s="108"/>
-      <c r="I160" s="109"/>
-      <c r="J160" s="107">
+      <c r="G160" s="112"/>
+      <c r="H160" s="113"/>
+      <c r="I160" s="114"/>
+      <c r="J160" s="112">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K160" s="108"/>
-      <c r="L160" s="109"/>
-      <c r="M160" s="107" t="s">
+      <c r="K160" s="113"/>
+      <c r="L160" s="114"/>
+      <c r="M160" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="N160" s="109"/>
+      <c r="N160" s="114"/>
       <c r="O160" s="63">
         <v>9</v>
       </c>
@@ -35226,9 +35673,9 @@
       </c>
       <c r="AE160" s="64"/>
       <c r="AF160" s="65"/>
-      <c r="AG160" s="107"/>
-      <c r="AH160" s="108"/>
-      <c r="AI160" s="109"/>
+      <c r="AG160" s="112"/>
+      <c r="AH160" s="113"/>
+      <c r="AI160" s="114"/>
       <c r="AJ160" s="63" t="s">
         <v>99</v>
       </c>
@@ -35239,13 +35686,13 @@
       </c>
       <c r="AN160" s="64"/>
       <c r="AO160" s="65"/>
-      <c r="AP160" s="115" t="s">
+      <c r="AP160" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="AQ160" s="116"/>
-      <c r="AR160" s="116"/>
-      <c r="AS160" s="117"/>
-      <c r="AT160" s="118"/>
+      <c r="AQ160" s="109"/>
+      <c r="AR160" s="109"/>
+      <c r="AS160" s="110"/>
+      <c r="AT160" s="111"/>
     </row>
     <row r="163" spans="6:46" x14ac:dyDescent="0.4">
       <c r="F163" s="80" t="s">
@@ -35315,18 +35762,18 @@
       <c r="AT164" s="74"/>
     </row>
     <row r="165" spans="6:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G165" s="107"/>
-      <c r="H165" s="108"/>
-      <c r="I165" s="109"/>
-      <c r="J165" s="107">
+      <c r="G165" s="112"/>
+      <c r="H165" s="113"/>
+      <c r="I165" s="114"/>
+      <c r="J165" s="112">
         <v>1</v>
       </c>
-      <c r="K165" s="108"/>
-      <c r="L165" s="109"/>
-      <c r="M165" s="112" t="s">
+      <c r="K165" s="113"/>
+      <c r="L165" s="114"/>
+      <c r="M165" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N165" s="113"/>
+      <c r="N165" s="116"/>
       <c r="O165" s="53"/>
       <c r="P165" s="54"/>
       <c r="Q165" s="56"/>
@@ -35344,10 +35791,10 @@
       <c r="AA165" s="55"/>
       <c r="AB165" s="55"/>
       <c r="AC165" s="55"/>
-      <c r="AD165" s="107"/>
-      <c r="AE165" s="108"/>
-      <c r="AF165" s="109"/>
-      <c r="AG165" s="114"/>
+      <c r="AD165" s="112"/>
+      <c r="AE165" s="113"/>
+      <c r="AF165" s="114"/>
+      <c r="AG165" s="107"/>
       <c r="AH165" s="55"/>
       <c r="AI165" s="56"/>
       <c r="AJ165" s="63" t="s">
@@ -35360,7 +35807,7 @@
       </c>
       <c r="AN165" s="64"/>
       <c r="AO165" s="64"/>
-      <c r="AP165" s="115" t="s">
+      <c r="AP165" s="108" t="s">
         <v>112</v>
       </c>
       <c r="AQ165" s="75"/>
@@ -35436,18 +35883,18 @@
       <c r="AT168" s="74"/>
     </row>
     <row r="169" spans="6:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G169" s="107"/>
-      <c r="H169" s="108"/>
-      <c r="I169" s="109"/>
-      <c r="J169" s="107">
+      <c r="G169" s="112"/>
+      <c r="H169" s="113"/>
+      <c r="I169" s="114"/>
+      <c r="J169" s="112">
         <v>1</v>
       </c>
-      <c r="K169" s="108"/>
-      <c r="L169" s="109"/>
-      <c r="M169" s="112" t="s">
+      <c r="K169" s="113"/>
+      <c r="L169" s="114"/>
+      <c r="M169" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N169" s="113"/>
+      <c r="N169" s="116"/>
       <c r="O169" s="53"/>
       <c r="P169" s="54"/>
       <c r="Q169" s="56"/>
@@ -35465,10 +35912,10 @@
       <c r="AA169" s="55"/>
       <c r="AB169" s="55"/>
       <c r="AC169" s="55"/>
-      <c r="AD169" s="107"/>
-      <c r="AE169" s="108"/>
-      <c r="AF169" s="109"/>
-      <c r="AG169" s="114"/>
+      <c r="AD169" s="112"/>
+      <c r="AE169" s="113"/>
+      <c r="AF169" s="114"/>
+      <c r="AG169" s="107"/>
       <c r="AH169" s="55"/>
       <c r="AI169" s="56"/>
       <c r="AJ169" s="63" t="s">
@@ -35481,7 +35928,7 @@
       </c>
       <c r="AN169" s="64"/>
       <c r="AO169" s="64"/>
-      <c r="AP169" s="115" t="s">
+      <c r="AP169" s="108" t="s">
         <v>112</v>
       </c>
       <c r="AQ169" s="75"/>
@@ -35557,18 +36004,18 @@
       <c r="AT172" s="74"/>
     </row>
     <row r="173" spans="6:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G173" s="107"/>
-      <c r="H173" s="108"/>
-      <c r="I173" s="109"/>
-      <c r="J173" s="107">
+      <c r="G173" s="112"/>
+      <c r="H173" s="113"/>
+      <c r="I173" s="114"/>
+      <c r="J173" s="112">
         <v>1</v>
       </c>
-      <c r="K173" s="108"/>
-      <c r="L173" s="109"/>
-      <c r="M173" s="112" t="s">
+      <c r="K173" s="113"/>
+      <c r="L173" s="114"/>
+      <c r="M173" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="N173" s="113"/>
+      <c r="N173" s="116"/>
       <c r="O173" s="63">
         <v>9</v>
       </c>
@@ -35598,9 +36045,9 @@
       </c>
       <c r="AB173" s="64"/>
       <c r="AC173" s="65"/>
-      <c r="AD173" s="107"/>
-      <c r="AE173" s="108"/>
-      <c r="AF173" s="109"/>
+      <c r="AD173" s="112"/>
+      <c r="AE173" s="113"/>
+      <c r="AF173" s="114"/>
       <c r="AG173" s="63" t="s">
         <v>133</v>
       </c>
@@ -35616,7 +36063,7 @@
       </c>
       <c r="AN173" s="64"/>
       <c r="AO173" s="64"/>
-      <c r="AP173" s="115" t="s">
+      <c r="AP173" s="108" t="s">
         <v>112</v>
       </c>
       <c r="AQ173" s="75"/>
@@ -35626,80 +36073,46 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="J165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="AD165:AF165"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="J169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="AD169:AF169"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:L173"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="AD173:AF173"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="J130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="J131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="J139:L139"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="J140:L140"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="J141:L141"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="J137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="J138:L138"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="J145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="J146:L146"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="J147:L147"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="J142:L142"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="J143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="J144:L144"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="J151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="J152:L152"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="J153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="J148:L148"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="J149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="J150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="J160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="J156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="J157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="J158:L158"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="J154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="J155:L155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="J159:L159"/>
-    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="G157:I157"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="AG159:AI159"/>
+    <mergeCell ref="AG160:AI160"/>
+    <mergeCell ref="AG153:AI153"/>
+    <mergeCell ref="AG154:AI154"/>
+    <mergeCell ref="AG155:AI155"/>
+    <mergeCell ref="AG156:AI156"/>
+    <mergeCell ref="AG157:AI157"/>
+    <mergeCell ref="AG158:AI158"/>
+    <mergeCell ref="AG152:AI152"/>
     <mergeCell ref="AG150:AI150"/>
     <mergeCell ref="AG151:AI151"/>
     <mergeCell ref="AG140:AI140"/>
@@ -35722,46 +36135,80 @@
     <mergeCell ref="AG147:AI147"/>
     <mergeCell ref="AG148:AI148"/>
     <mergeCell ref="AG149:AI149"/>
-    <mergeCell ref="AG159:AI159"/>
-    <mergeCell ref="AG160:AI160"/>
-    <mergeCell ref="AG153:AI153"/>
-    <mergeCell ref="AG154:AI154"/>
-    <mergeCell ref="AG155:AI155"/>
-    <mergeCell ref="AG156:AI156"/>
-    <mergeCell ref="AG157:AI157"/>
-    <mergeCell ref="AG158:AI158"/>
-    <mergeCell ref="AG152:AI152"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="G160:I160"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="G156:I156"/>
-    <mergeCell ref="G157:I157"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="J156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="J157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="J154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="J155:L155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="J159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="J151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="J152:L152"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="J153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="J148:L148"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="J149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="J150:L150"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="J145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="J146:L146"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="J147:L147"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="J142:L142"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="J143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="J144:L144"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="J139:L139"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="J140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="J141:L141"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="J138:L138"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="J130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="J165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="AD165:AF165"/>
+    <mergeCell ref="G169:I169"/>
+    <mergeCell ref="J169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="AD169:AF169"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:L173"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="AD173:AF173"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
